--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\E\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy.Skorb\Source\Repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,15 +87,6 @@
     <t>КУ:</t>
   </si>
   <si>
-    <t>ООО "Гринвуд"</t>
-  </si>
-  <si>
-    <t>ООО "ЕвроЛогистик"</t>
-  </si>
-  <si>
-    <t>01.01.2021..31.03.2021</t>
-  </si>
-  <si>
     <t>18.10.2021</t>
   </si>
   <si>
@@ -352,13 +343,22 @@
   </si>
   <si>
     <t>ЕЛЗк000489171</t>
+  </si>
+  <si>
+    <t>&lt;KU_graph.Date_from&gt; - &lt;KU_graph.Date_to&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Entities.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Vendors.Name&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -378,6 +378,8 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -392,8 +394,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +438,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -710,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,6 +812,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1109,7 +1125,7 @@
       <pane xSplit="5" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1141,7 +1157,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1149,30 +1165,30 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
+      <c r="C5" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+      <c r="C6" s="39" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1182,8 +1198,8 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
+      <c r="C7" s="40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1273,19 +1289,19 @@
     </row>
     <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="20">
         <v>30464</v>
@@ -1335,19 +1351,19 @@
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="20">
         <v>24850</v>
@@ -1397,19 +1413,19 @@
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="20">
         <v>6276</v>
@@ -1459,19 +1475,19 @@
     </row>
     <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20">
         <v>21546</v>
@@ -1521,19 +1537,19 @@
     </row>
     <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="20">
         <v>58368</v>
@@ -1583,19 +1599,19 @@
     </row>
     <row r="15" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="20">
         <v>8618</v>
@@ -1645,19 +1661,19 @@
     </row>
     <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F16" s="20">
         <v>17152</v>
@@ -1707,19 +1723,19 @@
     </row>
     <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="20">
         <v>10602</v>
@@ -1769,19 +1785,19 @@
     </row>
     <row r="18" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" s="20">
         <v>20586</v>
@@ -1831,19 +1847,19 @@
     </row>
     <row r="19" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="20">
         <v>13792</v>
@@ -1893,19 +1909,19 @@
     </row>
     <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F20" s="20">
         <v>21600</v>
@@ -1955,19 +1971,19 @@
     </row>
     <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F21" s="20">
         <v>13816</v>
@@ -2017,19 +2033,19 @@
     </row>
     <row r="22" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" s="20">
         <v>38016</v>
@@ -2079,19 +2095,19 @@
     </row>
     <row r="23" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F23" s="20">
         <v>13218</v>
@@ -2141,19 +2157,19 @@
     </row>
     <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" s="20">
         <v>22534</v>
@@ -2203,19 +2219,19 @@
     </row>
     <row r="25" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F25" s="20">
         <v>47518</v>
@@ -2265,19 +2281,19 @@
     </row>
     <row r="26" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F26" s="20">
         <v>6664</v>
@@ -2327,19 +2343,19 @@
     </row>
     <row r="27" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F27" s="20">
         <v>18136</v>
@@ -2389,19 +2405,19 @@
     </row>
     <row r="28" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="20">
         <v>21638</v>
@@ -2451,19 +2467,19 @@
     </row>
     <row r="29" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" s="20">
         <v>20944</v>
@@ -2513,19 +2529,19 @@
     </row>
     <row r="30" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" s="20">
         <v>7790</v>
@@ -2575,19 +2591,19 @@
     </row>
     <row r="31" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="E31" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="20">
         <v>15262</v>
@@ -2637,19 +2653,19 @@
     </row>
     <row r="32" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="20">
         <v>14072</v>
@@ -2699,19 +2715,19 @@
     </row>
     <row r="33" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" s="20">
         <v>14806</v>
@@ -2761,19 +2777,19 @@
     </row>
     <row r="34" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="20">
         <v>23536</v>
@@ -2823,19 +2839,19 @@
     </row>
     <row r="35" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F35" s="20">
         <v>4156</v>
@@ -2885,19 +2901,19 @@
     </row>
     <row r="36" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F36" s="20">
         <v>7920</v>
@@ -2947,19 +2963,19 @@
     </row>
     <row r="37" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F37" s="20">
         <v>12206</v>
@@ -3009,19 +3025,19 @@
     </row>
     <row r="38" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F38" s="20">
         <v>27428</v>

--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy.Skorb\source\repos\Gespee1\UKUP\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Source\Repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Поставки</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>&lt;Table&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Table1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Kol-vo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Sum&gt;</t>
   </si>
 </sst>
 </file>
@@ -534,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,6 +596,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,33 +659,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -961,7 +972,7 @@
       <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1039,27 +1050,27 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31" t="s">
+      <c r="F8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34" t="s">
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1131,21 +1142,23 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1210,13 +1223,13 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="24">
         <v>563514</v>
       </c>
@@ -1247,11 +1260,11 @@
       <c r="O12" s="26">
         <v>0</v>
       </c>
-      <c r="P12" s="24">
-        <v>563514</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>23767033.190000001</v>
+      <c r="P12" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="50" t="s">
+        <v>33</v>
       </c>
       <c r="R12" s="25">
         <v>0</v>

--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Source\Repos\Gespee1\UKUP\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\source\repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,9 +87,6 @@
     <t>КУ:</t>
   </si>
   <si>
-    <t>18.10.2021</t>
-  </si>
-  <si>
     <t>131378</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>&lt;Vendors.Name&gt;</t>
   </si>
   <si>
-    <t>&lt;KU_Num&gt;</t>
-  </si>
-  <si>
     <t>&lt;Table&gt;</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>&lt;Sum&gt;</t>
+  </si>
+  <si>
+    <t>&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Doc.Date.Now&gt;</t>
   </si>
 </sst>
 </file>
@@ -623,6 +623,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,8 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -972,7 +972,7 @@
       <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1035,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1046,31 +1046,31 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40" t="s">
+      <c r="F8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43" t="s">
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1136,7 +1136,7 @@
     </row>
     <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1153,7 +1153,7 @@
       <c r="N10" s="33"/>
       <c r="O10" s="34"/>
       <c r="P10" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
@@ -1162,19 +1162,19 @@
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="F11" s="20">
         <v>30464</v>
@@ -1223,13 +1223,13 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="24">
         <v>563514</v>
       </c>
@@ -1260,11 +1260,11 @@
       <c r="O12" s="26">
         <v>0</v>
       </c>
-      <c r="P12" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="50" t="s">
-        <v>33</v>
+      <c r="P12" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="R12" s="25">
         <v>0</v>

--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,6 +625,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -969,17 +973,18 @@
   <dimension ref="A2:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="9.7109375" customWidth="1" outlineLevel="1"/>
@@ -1003,7 +1008,7 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="40" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="1"/>
@@ -1050,27 +1055,27 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42" t="s">
+      <c r="F8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1138,7 +1143,7 @@
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -1223,13 +1228,13 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="24">
         <v>563514</v>
       </c>

--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\source\repos\Gespee1\UKUP\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy.Skorb\source\repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="отчёт" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">отчёт!$A$1:$Z$41</definedName>
+    <definedName name="Print_Area" localSheetId="0">отчёт!$A$1:$Z$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Поставки</t>
   </si>
@@ -85,18 +85,6 @@
   </si>
   <si>
     <t>КУ:</t>
-  </si>
-  <si>
-    <t>131378</t>
-  </si>
-  <si>
-    <t>05.01.2021</t>
-  </si>
-  <si>
-    <t>ЕЛЗк000446359</t>
-  </si>
-  <si>
-    <t>Счет-фактура</t>
   </si>
   <si>
     <t>&lt;KU_graph.Date_from&gt; - &lt;KU_graph.Date_to&gt;</t>
@@ -211,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -220,21 +208,120 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
       <right style="dashed">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -244,7 +331,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -257,7 +346,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -270,20 +361,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -292,157 +370,13 @@
       <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -543,99 +477,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +573,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,16 +582,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -970,13 +896,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:T40"/>
+  <dimension ref="A2:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1008,8 +934,8 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>33</v>
+      <c r="C3" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1018,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
@@ -1028,8 +954,8 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>26</v>
+      <c r="C5" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1039,8 +965,8 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>27</v>
+      <c r="C6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1051,31 +977,31 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="49"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1093,222 +1019,160 @@
       <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="31"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="36"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="20">
-        <v>30464</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1498161.02</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="A11" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="16">
+        <v>563514</v>
+      </c>
+      <c r="G11" s="17">
+        <v>23767033.190000001</v>
+      </c>
+      <c r="H11" s="17">
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="17">
         <v>0</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="16">
         <v>0</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="17">
         <v>0</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="17">
         <v>0</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="17">
         <v>0</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="18">
         <v>0</v>
       </c>
-      <c r="P11" s="22">
-        <v>30464</v>
-      </c>
-      <c r="Q11" s="22">
-        <v>1498161.02</v>
-      </c>
-      <c r="R11" s="22">
+      <c r="P11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="17">
         <v>0</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="17">
         <v>0</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="24">
-        <v>563514</v>
-      </c>
-      <c r="G12" s="25">
-        <v>23767033.190000001</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
-        <v>0</v>
-      </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0</v>
-      </c>
-      <c r="M12" s="25">
-        <v>0</v>
-      </c>
-      <c r="N12" s="25">
-        <v>0</v>
-      </c>
-      <c r="O12" s="26">
-        <v>0</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="25">
-        <v>0</v>
-      </c>
-      <c r="S12" s="25">
-        <v>0</v>
-      </c>
-      <c r="T12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
+    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -902,7 +902,7 @@
       <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1100,10 +1100,10 @@
       <c r="D11" s="43"/>
       <c r="E11" s="44"/>
       <c r="F11" s="16">
-        <v>563514</v>
+        <v>0</v>
       </c>
       <c r="G11" s="17">
-        <v>23767033.190000001</v>
+        <v>0</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>

--- a/Docs/Отчет_сверка2.xlsx
+++ b/Docs/Отчет_сверка2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy.Skorb\source\repos\Gespee1\UKUP\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Source\Repos\Gespee1\UKUP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -549,8 +549,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -591,6 +589,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -902,7 +902,7 @@
       <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1"/>
@@ -981,27 +981,27 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36" t="s">
+      <c r="F8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1069,7 +1069,7 @@
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
@@ -1092,13 +1092,13 @@
       <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="16">
         <v>0</v>
       </c>
@@ -1129,10 +1129,10 @@
       <c r="O11" s="18">
         <v>0</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="44" t="s">
         <v>27</v>
       </c>
       <c r="R11" s="17">
